--- a/Vessel.xlsx
+++ b/Vessel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/Documents/GitHub/ASE6002PEK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C43ECA0B-1791-0641-8AA3-86372897DE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF6E1CB-F29A-FC4E-947E-A88AE6B8CFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Vessel Diameter</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Volume lost to radius</t>
-  </si>
-  <si>
-    <t>mm^3</t>
   </si>
   <si>
     <t>Notes</t>
@@ -99,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,8 +104,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,8 +141,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -130,16 +160,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -474,7 +544,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -482,6 +552,7 @@
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -497,8 +568,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>19</v>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -515,8 +586,9 @@
         <f>3.5*25.4</f>
         <v>88.899999999999991</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -526,12 +598,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <f>D4+D5+D6</f>
+      <c r="D3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -541,11 +612,11 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -555,11 +626,11 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -569,11 +640,11 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -583,12 +654,12 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <f>D3 * 1.5</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -598,11 +669,11 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -612,12 +683,12 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9">
-        <f>((0.25 *PI() * (D2^2))*D8) / 100000</f>
-        <v>6.2071666189443464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="2">
+        <f>(((0.25 *PI() * ((D2-D3-D4-D5)^2))*D8) / 1000000) - D10</f>
+        <v>0.55164456408782414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -625,11 +696,11 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <f>((((2*D7)^2) - (PI()*(D7^2)))*(PI()*D2))*0.25</f>
-        <v>1213.696489070913</v>
+        <v>16</v>
+      </c>
+      <c r="D10" s="3">
+        <f>(((((2*D7)^2) - (PI()*(D7^2)))*(PI()*D2))*0.25)/1000000</f>
+        <v>1.2136964890709131E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Vessel.xlsx
+++ b/Vessel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/Documents/GitHub/ASE6002PEK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF6E1CB-F29A-FC4E-947E-A88AE6B8CFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D823937-A90D-9E46-88B6-3DC53BF6457B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21540" yWindow="-28180" windowWidth="34400" windowHeight="26040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Vessel Diameter</t>
   </si>
@@ -56,27 +56,12 @@
     <t>Input</t>
   </si>
   <si>
-    <t>Total kettle wall thickness</t>
-  </si>
-  <si>
     <t>mm</t>
   </si>
   <si>
-    <t>Insulation thickness</t>
-  </si>
-  <si>
-    <t>Vessel inner wall thickness</t>
-  </si>
-  <si>
-    <t>Vessel outer wall thickness</t>
-  </si>
-  <si>
     <t>Calculation</t>
   </si>
   <si>
-    <t>Bottom Radius</t>
-  </si>
-  <si>
     <t>Vessel Height</t>
   </si>
   <si>
@@ -86,17 +71,26 @@
     <t>liters</t>
   </si>
   <si>
-    <t>Volume lost to radius</t>
-  </si>
-  <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Alternative units</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>Alternative Value</t>
+  </si>
+  <si>
+    <t>Gallons</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,14 +109,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,22 +177,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+  <cellStyles count="3">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
@@ -541,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8032661-D479-6E49-9728-AC881C427C7F}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="284" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -552,10 +534,12 @@
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -569,10 +553,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -580,127 +570,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <f>3.5*25.4</f>
         <v>88.899999999999991</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <f>D2 / 25.4</f>
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="3">
-        <v>3</v>
+        <f>(D4 * 1000000) / (PI()*((D2/2)^2))</f>
+        <v>322.20820267591597</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <f>D3 / 25.4</f>
+        <v>12.685362310075433</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3">
-        <f>D3 * 1.5</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2">
-        <f>(((0.25 *PI() * ((D2-D3-D4-D5)^2))*D8) / 1000000) - D10</f>
-        <v>0.55164456408782414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3">
-        <f>(((((2*D7)^2) - (PI()*(D7^2)))*(PI()*D2))*0.25)/1000000</f>
-        <v>1.2136964890709131E-3</v>
+      <c r="G4">
+        <f>D4 * 0.264172</f>
+        <v>0.52834400000000004</v>
       </c>
     </row>
   </sheetData>
